--- a/benchmark/result_summary.xlsx
+++ b/benchmark/result_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwan/Desktop/API_paper/icse22_artifact/benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7C209D-622B-3347-A5F5-4AF24A9D56FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126712F2-340A-394F-8D3E-2A76EBA9577D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="1180" windowWidth="27700" windowHeight="15880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="1180" windowWidth="27700" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vision" sheetId="1" r:id="rId1"/>
@@ -443,9 +443,6 @@
     <t>SunHacks2019</t>
   </si>
   <si>
-    <t>https://github.com/dev5151/Klassroom/tree/ca5c066e475b8b7be5b97ebb6cc32505625d0bd6</t>
-  </si>
-  <si>
     <t>SnapTrack_HACK112</t>
   </si>
   <si>
@@ -455,9 +452,6 @@
     <t>lahacks-quaranteen</t>
   </si>
   <si>
-    <t>https://github.com/bestvibes/lahacks-quaranteen/blob/c334823ea08b850d8bda8a0353cbb35de244f61a</t>
-  </si>
-  <si>
     <t>plant-watcher</t>
   </si>
   <si>
@@ -533,15 +527,9 @@
     <t>https://github.com/mihirKachroo/HackThe6ix/</t>
   </si>
   <si>
-    <t>https://github.com/ansonjwhe/BadGIF/tree/</t>
-  </si>
-  <si>
     <t>https://github.com/whtai/Mind-Reading-Journal/</t>
   </si>
   <si>
-    <t>https://github.com/da1234/newsChronicle/tree/</t>
-  </si>
-  <si>
     <t>1. all crash 2. only our tool</t>
   </si>
   <si>
@@ -573,6 +561,18 @@
   </si>
   <si>
     <t>accuracy failuer: improper label, API limitations</t>
+  </si>
+  <si>
+    <t>https://github.com/da1234/newsChronicle/</t>
+  </si>
+  <si>
+    <t>https://github.com/ansonjwhe/BadGIF/</t>
+  </si>
+  <si>
+    <t>https://github.com/dev5151/Klassroom</t>
+  </si>
+  <si>
+    <t>https://github.com/bestvibes/lahacks-quaranteen/</t>
   </si>
 </sst>
 </file>
@@ -924,8 +924,8 @@
   <dimension ref="A1:I949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -966,13 +966,13 @@
         <v>111</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>114</v>
@@ -1427,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1542,7 +1542,7 @@
         <v>119</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
@@ -1568,7 +1568,7 @@
         <v>120</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>29</v>
@@ -1594,10 +1594,10 @@
         <v>128</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" s="6">
         <v>34</v>
@@ -1620,7 +1620,7 @@
         <v>129</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>29</v>
@@ -1647,7 +1647,7 @@
         <v>130</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>29</v>
@@ -1674,7 +1674,7 @@
         <v>131</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>29</v>
@@ -1700,7 +1700,7 @@
         <v>132</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>29</v>
@@ -1726,7 +1726,7 @@
         <v>133</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>29</v>
@@ -1752,7 +1752,7 @@
         <v>134</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>29</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>8</v>
@@ -1802,13 +1802,13 @@
     </row>
     <row r="34" spans="1:9" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D34" s="6">
         <v>2</v>
@@ -1829,10 +1829,10 @@
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>8</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>8</v>
@@ -3477,7 +3477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3517,13 +3517,13 @@
         <v>111</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>114</v>
@@ -3737,7 +3737,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3797,7 +3797,7 @@
         <v>117</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>69</v>
@@ -4008,7 +4008,7 @@
         <v>123</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>69</v>
@@ -4035,7 +4035,7 @@
         <v>124</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>69</v>
@@ -4062,7 +4062,7 @@
         <v>125</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>56</v>
@@ -4088,7 +4088,7 @@
         <v>126</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>69</v>
@@ -4114,7 +4114,7 @@
         <v>127</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>69</v>
@@ -5786,9 +5786,9 @@
   </sheetPr>
   <dimension ref="A1:H972"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5828,10 +5828,10 @@
         <v>111</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>114</v>
@@ -9319,10 +9319,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -9425,7 +9425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688C725D-7ADB-8C49-BD47-193A172B5960}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H27"/>
     </sheetView>
   </sheetViews>
@@ -9433,7 +9433,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="13"/>
     </row>
@@ -9442,30 +9442,30 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B3" s="19"/>
       <c r="D3" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2"/>
       <c r="H3" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -9576,13 +9576,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B12" s="16">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="4"/>
@@ -9590,10 +9590,10 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
       <c r="D13" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -9608,19 +9608,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -9631,10 +9631,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -9667,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -9678,10 +9678,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -9714,7 +9714,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -9725,10 +9725,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
